--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H2">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N2">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q2">
-        <v>9.995842575759665</v>
+        <v>48.42563905735602</v>
       </c>
       <c r="R2">
-        <v>89.96258318183699</v>
+        <v>435.8307515162041</v>
       </c>
       <c r="S2">
-        <v>0.05285438625579367</v>
+        <v>0.1541064265605312</v>
       </c>
       <c r="T2">
-        <v>0.05285438625579366</v>
+        <v>0.1541064265605311</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H3">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q3">
-        <v>20.02436172918433</v>
+        <v>77.56182827175935</v>
       </c>
       <c r="R3">
-        <v>180.219255562659</v>
+        <v>698.0564544458341</v>
       </c>
       <c r="S3">
-        <v>0.1058815543900867</v>
+        <v>0.2468274332591745</v>
       </c>
       <c r="T3">
-        <v>0.1058815543900867</v>
+        <v>0.2468274332591744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H4">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N4">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q4">
-        <v>0.1142662866956667</v>
+        <v>36.34929701399334</v>
       </c>
       <c r="R4">
-        <v>1.028396580261</v>
+        <v>327.14367312594</v>
       </c>
       <c r="S4">
-        <v>0.0006041986363084588</v>
+        <v>0.1156755053697735</v>
       </c>
       <c r="T4">
-        <v>0.0006041986363084587</v>
+        <v>0.1156755053697735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.600099</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H5">
-        <v>16.800297</v>
+        <v>16.819787</v>
       </c>
       <c r="I5">
-        <v>0.2373417163582682</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J5">
-        <v>0.2373417163582682</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614068666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N5">
-        <v>7.842206000000001</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q5">
-        <v>14.63904332613133</v>
+        <v>12.51669118625933</v>
       </c>
       <c r="R5">
-        <v>131.751389935182</v>
+        <v>112.650220676334</v>
       </c>
       <c r="S5">
-        <v>0.07740594597307784</v>
+        <v>0.03983225804808693</v>
       </c>
       <c r="T5">
-        <v>0.07740594597307784</v>
+        <v>0.03983225804808693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.600099</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H6">
-        <v>16.800297</v>
+        <v>16.819787</v>
       </c>
       <c r="I6">
-        <v>0.2373417163582682</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J6">
-        <v>0.2373417163582682</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020115</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N6">
-        <v>0.060345</v>
+        <v>10.727147</v>
       </c>
       <c r="O6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q6">
-        <v>0.112645991385</v>
+        <v>20.04759196196544</v>
       </c>
       <c r="R6">
-        <v>1.013813922465</v>
+        <v>180.428327657689</v>
       </c>
       <c r="S6">
-        <v>0.0005956311030015512</v>
+        <v>0.06379807925183846</v>
       </c>
       <c r="T6">
-        <v>0.0005956311030015511</v>
+        <v>0.06379807925183845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>16.819787</v>
       </c>
       <c r="I7">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J7">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.784940333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N7">
-        <v>5.354820999999999</v>
+        <v>5.02727</v>
       </c>
       <c r="O7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q7">
-        <v>10.00743873812522</v>
+        <v>9.39529006572111</v>
       </c>
       <c r="R7">
-        <v>90.06694864312698</v>
+        <v>84.55761059148999</v>
       </c>
       <c r="S7">
-        <v>0.0529157025520547</v>
+        <v>0.0298989255838845</v>
       </c>
       <c r="T7">
-        <v>0.05291570255205469</v>
+        <v>0.0298989255838845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.606595666666666</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H8">
-        <v>16.819787</v>
+        <v>3.830356</v>
       </c>
       <c r="I8">
-        <v>0.2376170561365961</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J8">
-        <v>0.237617056136596</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.575715666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N8">
-        <v>10.727147</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q8">
-        <v>20.04759196196544</v>
+        <v>2.850415595954667</v>
       </c>
       <c r="R8">
-        <v>180.428327657689</v>
+        <v>25.653740363592</v>
       </c>
       <c r="S8">
-        <v>0.1060043874266135</v>
+        <v>0.009070966749343384</v>
       </c>
       <c r="T8">
-        <v>0.1060043874266135</v>
+        <v>0.009070966749343381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.606595666666666</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H9">
-        <v>16.819787</v>
+        <v>3.830356</v>
       </c>
       <c r="I9">
-        <v>0.2376170561365961</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J9">
-        <v>0.237617056136596</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02040433333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N9">
-        <v>0.061213</v>
+        <v>10.727147</v>
       </c>
       <c r="O9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q9">
-        <v>0.1143988468478889</v>
+        <v>4.565421319370223</v>
       </c>
       <c r="R9">
-        <v>1.029589621631</v>
+        <v>41.088791874332</v>
       </c>
       <c r="S9">
-        <v>0.0006048995662635455</v>
+        <v>0.01452868313081224</v>
       </c>
       <c r="T9">
-        <v>0.0006048995662635453</v>
+        <v>0.01452868313081223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.606595666666666</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H10">
-        <v>16.819787</v>
+        <v>3.830356</v>
       </c>
       <c r="I10">
-        <v>0.2376170561365961</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J10">
-        <v>0.237617056136596</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.614068666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N10">
-        <v>7.842206000000001</v>
+        <v>5.02727</v>
       </c>
       <c r="O10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q10">
-        <v>14.65602605890244</v>
+        <v>2.139581534235556</v>
       </c>
       <c r="R10">
-        <v>131.904234530122</v>
+        <v>19.25623380812</v>
       </c>
       <c r="S10">
-        <v>0.07749574449789054</v>
+        <v>0.006808857270534135</v>
       </c>
       <c r="T10">
-        <v>0.07749574449789054</v>
+        <v>0.006808857270534133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.606595666666666</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H11">
-        <v>16.819787</v>
+        <v>21.031264</v>
       </c>
       <c r="I11">
-        <v>0.2376170561365961</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J11">
-        <v>0.237617056136596</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.020115</v>
+        <v>2.232494</v>
       </c>
       <c r="N11">
-        <v>0.060345</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q11">
-        <v>0.112776671835</v>
+        <v>15.65072356413867</v>
       </c>
       <c r="R11">
-        <v>1.014990046515</v>
+        <v>140.856512077248</v>
       </c>
       <c r="S11">
-        <v>0.0005963220937737679</v>
+        <v>0.04980578735779716</v>
       </c>
       <c r="T11">
-        <v>0.0005963220937737677</v>
+        <v>0.04980578735779716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.773942666666667</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H12">
-        <v>5.321828</v>
+        <v>21.031264</v>
       </c>
       <c r="I12">
-        <v>0.07518270609641543</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J12">
-        <v>0.07518270609641541</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.784940333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N12">
-        <v>5.354820999999999</v>
+        <v>10.727147</v>
       </c>
       <c r="O12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q12">
-        <v>3.166381814754222</v>
+        <v>25.06727339153423</v>
       </c>
       <c r="R12">
-        <v>28.497436332788</v>
+        <v>225.605460523808</v>
       </c>
       <c r="S12">
-        <v>0.01674267738831628</v>
+        <v>0.07977236854654207</v>
       </c>
       <c r="T12">
-        <v>0.01674267738831628</v>
+        <v>0.07977236854654206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.773942666666667</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H13">
-        <v>5.321828</v>
+        <v>21.031264</v>
       </c>
       <c r="I13">
-        <v>0.07518270609641543</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J13">
-        <v>0.07518270609641541</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.575715666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N13">
-        <v>10.727147</v>
+        <v>5.02727</v>
       </c>
       <c r="O13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q13">
-        <v>6.343114584968445</v>
+        <v>11.74776028547556</v>
       </c>
       <c r="R13">
-        <v>57.088031264716</v>
+        <v>105.72984256928</v>
       </c>
       <c r="S13">
-        <v>0.03354008687088605</v>
+        <v>0.03738526518029207</v>
       </c>
       <c r="T13">
-        <v>0.03354008687088604</v>
+        <v>0.03738526518029206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.773942666666667</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H14">
-        <v>5.321828</v>
+        <v>14.116679</v>
       </c>
       <c r="I14">
-        <v>0.07518270609641543</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J14">
-        <v>0.07518270609641541</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02040433333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N14">
-        <v>0.061213</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q14">
-        <v>0.03619611748488889</v>
+        <v>10.50513372247534</v>
       </c>
       <c r="R14">
-        <v>0.325765057364</v>
+        <v>94.546203502278</v>
       </c>
       <c r="S14">
-        <v>0.0001913919271943926</v>
+        <v>0.03343081578322067</v>
       </c>
       <c r="T14">
-        <v>0.0001913919271943926</v>
+        <v>0.03343081578322066</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.773942666666667</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H15">
-        <v>5.321828</v>
+        <v>14.116679</v>
       </c>
       <c r="I15">
-        <v>0.07518270609641543</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J15">
-        <v>0.07518270609641541</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.614068666666667</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N15">
-        <v>7.842206000000001</v>
+        <v>10.727147</v>
       </c>
       <c r="O15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q15">
-        <v>4.637207941396444</v>
+        <v>16.82574342053478</v>
       </c>
       <c r="R15">
-        <v>41.734871472568</v>
+        <v>151.431690784813</v>
       </c>
       <c r="S15">
-        <v>0.02451987191928886</v>
+        <v>0.05354508981681896</v>
       </c>
       <c r="T15">
-        <v>0.02451987191928886</v>
+        <v>0.05354508981681894</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.773942666666667</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H16">
-        <v>5.321828</v>
+        <v>14.116679</v>
       </c>
       <c r="I16">
-        <v>0.07518270609641543</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J16">
-        <v>0.07518270609641541</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.020115</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N16">
-        <v>0.060345</v>
+        <v>5.02727</v>
       </c>
       <c r="O16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q16">
-        <v>0.03568285674</v>
+        <v>7.885372981814444</v>
       </c>
       <c r="R16">
-        <v>0.32114571066</v>
+        <v>70.96835683632999</v>
       </c>
       <c r="S16">
-        <v>0.0001886779907298388</v>
+        <v>0.02509386919778385</v>
       </c>
       <c r="T16">
-        <v>0.0001886779907298388</v>
+        <v>0.02509386919778384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.954772000000001</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H17">
-        <v>17.864316</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I17">
-        <v>0.2523733610784663</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J17">
-        <v>0.2523733610784662</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N17">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q17">
-        <v>10.628912718604</v>
+        <v>3.788836263043334</v>
       </c>
       <c r="R17">
-        <v>95.66021446743601</v>
+        <v>34.09952636739</v>
       </c>
       <c r="S17">
-        <v>0.05620183131640798</v>
+        <v>0.01205733220431029</v>
       </c>
       <c r="T17">
-        <v>0.05620183131640797</v>
+        <v>0.01205733220431029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.954772000000001</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H18">
-        <v>17.864316</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I18">
-        <v>0.2523733610784663</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J18">
-        <v>0.2523733610784662</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>10.727147</v>
       </c>
       <c r="O18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q18">
-        <v>21.29257153182801</v>
+        <v>6.068460288896111</v>
       </c>
       <c r="R18">
-        <v>191.633143786452</v>
+        <v>54.616142600065</v>
       </c>
       <c r="S18">
-        <v>0.1125873873655743</v>
+        <v>0.01931185107828144</v>
       </c>
       <c r="T18">
-        <v>0.1125873873655743</v>
+        <v>0.01931185107828143</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.954772000000001</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H19">
-        <v>17.864316</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I19">
-        <v>0.2523733610784663</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J19">
-        <v>0.2523733610784662</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N19">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q19">
-        <v>0.121503152812</v>
+        <v>2.843979704627777</v>
       </c>
       <c r="R19">
-        <v>1.093528375308</v>
+        <v>25.59581734164999</v>
       </c>
       <c r="S19">
-        <v>0.0006424645567744061</v>
+        <v>0.009050485610974839</v>
       </c>
       <c r="T19">
-        <v>0.0006424645567744059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.954772000000001</v>
-      </c>
-      <c r="H20">
-        <v>17.864316</v>
-      </c>
-      <c r="I20">
-        <v>0.2523733610784663</v>
-      </c>
-      <c r="J20">
-        <v>0.2523733610784662</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N20">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q20">
-        <v>15.566182902344</v>
-      </c>
-      <c r="R20">
-        <v>140.095646121096</v>
-      </c>
-      <c r="S20">
-        <v>0.0823083234267817</v>
-      </c>
-      <c r="T20">
-        <v>0.0823083234267817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.954772000000001</v>
-      </c>
-      <c r="H21">
-        <v>17.864316</v>
-      </c>
-      <c r="I21">
-        <v>0.2523733610784663</v>
-      </c>
-      <c r="J21">
-        <v>0.2523733610784662</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.020115</v>
-      </c>
-      <c r="N21">
-        <v>0.060345</v>
-      </c>
-      <c r="O21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q21">
-        <v>0.11978023878</v>
-      </c>
-      <c r="R21">
-        <v>1.07802214902</v>
-      </c>
-      <c r="S21">
-        <v>0.0006333544129278345</v>
-      </c>
-      <c r="T21">
-        <v>0.0006333544129278344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.472614</v>
-      </c>
-      <c r="H22">
-        <v>7.417842</v>
-      </c>
-      <c r="I22">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="J22">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N22">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q22">
-        <v>4.413468457364666</v>
-      </c>
-      <c r="R22">
-        <v>39.72121611628199</v>
-      </c>
-      <c r="S22">
-        <v>0.02333681876293312</v>
-      </c>
-      <c r="T22">
-        <v>0.02333681876293312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.472614</v>
-      </c>
-      <c r="H23">
-        <v>7.417842</v>
-      </c>
-      <c r="I23">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="J23">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.727147</v>
-      </c>
-      <c r="O23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q23">
-        <v>8.841364617419334</v>
-      </c>
-      <c r="R23">
-        <v>79.572281556774</v>
-      </c>
-      <c r="S23">
-        <v>0.0467499259792889</v>
-      </c>
-      <c r="T23">
-        <v>0.0467499259792889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.472614</v>
-      </c>
-      <c r="H24">
-        <v>7.417842</v>
-      </c>
-      <c r="I24">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="J24">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.061213</v>
-      </c>
-      <c r="O24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q24">
-        <v>0.05045204026066667</v>
-      </c>
-      <c r="R24">
-        <v>0.454068362346</v>
-      </c>
-      <c r="S24">
-        <v>0.0002667720708003918</v>
-      </c>
-      <c r="T24">
-        <v>0.0002667720708003918</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.472614</v>
-      </c>
-      <c r="H25">
-        <v>7.417842</v>
-      </c>
-      <c r="I25">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="J25">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N25">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q25">
-        <v>6.463582782161334</v>
-      </c>
-      <c r="R25">
-        <v>58.17224503945201</v>
-      </c>
-      <c r="S25">
-        <v>0.03417707895811768</v>
-      </c>
-      <c r="T25">
-        <v>0.03417707895811768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.472614</v>
-      </c>
-      <c r="H26">
-        <v>7.417842</v>
-      </c>
-      <c r="I26">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="J26">
-        <v>0.1047935850154583</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.020115</v>
-      </c>
-      <c r="N26">
-        <v>0.060345</v>
-      </c>
-      <c r="O26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q26">
-        <v>0.04973663061000001</v>
-      </c>
-      <c r="R26">
-        <v>0.44762967549</v>
-      </c>
-      <c r="S26">
-        <v>0.0002629892443181946</v>
-      </c>
-      <c r="T26">
-        <v>0.0002629892443181946</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.187066</v>
-      </c>
-      <c r="H27">
-        <v>6.561197999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.09269157531479572</v>
-      </c>
-      <c r="J27">
-        <v>0.0926915753147957</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N27">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q27">
-        <v>3.903782315061999</v>
-      </c>
-      <c r="R27">
-        <v>35.13404083555799</v>
-      </c>
-      <c r="S27">
-        <v>0.02064178349899057</v>
-      </c>
-      <c r="T27">
-        <v>0.02064178349899057</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.187066</v>
-      </c>
-      <c r="H28">
-        <v>6.561197999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.09269157531479572</v>
-      </c>
-      <c r="J28">
-        <v>0.0926915753147957</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N28">
-        <v>10.727147</v>
-      </c>
-      <c r="O28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q28">
-        <v>7.820326160234</v>
-      </c>
-      <c r="R28">
-        <v>70.38293544210599</v>
-      </c>
-      <c r="S28">
-        <v>0.04135104533575375</v>
-      </c>
-      <c r="T28">
-        <v>0.04135104533575375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.187066</v>
-      </c>
-      <c r="H29">
-        <v>6.561197999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.09269157531479572</v>
-      </c>
-      <c r="J29">
-        <v>0.0926915753147957</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.061213</v>
-      </c>
-      <c r="O29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q29">
-        <v>0.044625623686</v>
-      </c>
-      <c r="R29">
-        <v>0.401630613174</v>
-      </c>
-      <c r="S29">
-        <v>0.0002359640954055626</v>
-      </c>
-      <c r="T29">
-        <v>0.0002359640954055626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.187066</v>
-      </c>
-      <c r="H30">
-        <v>6.561197999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.09269157531479572</v>
-      </c>
-      <c r="J30">
-        <v>0.0926915753147957</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N30">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q30">
-        <v>5.717140702531999</v>
-      </c>
-      <c r="R30">
-        <v>51.454266322788</v>
-      </c>
-      <c r="S30">
-        <v>0.03023016425880247</v>
-      </c>
-      <c r="T30">
-        <v>0.03023016425880247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.187066</v>
-      </c>
-      <c r="H31">
-        <v>6.561197999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.09269157531479572</v>
-      </c>
-      <c r="J31">
-        <v>0.0926915753147957</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.020115</v>
-      </c>
-      <c r="N31">
-        <v>0.060345</v>
-      </c>
-      <c r="O31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q31">
-        <v>0.04399283259</v>
-      </c>
-      <c r="R31">
-        <v>0.39593549331</v>
-      </c>
-      <c r="S31">
-        <v>0.000232618125843345</v>
-      </c>
-      <c r="T31">
-        <v>0.0002326181258433449</v>
+        <v>0.009050485610974835</v>
       </c>
     </row>
   </sheetData>
